--- a/biology/Botanique/Lamprodila_rutilans/Lamprodila_rutilans.xlsx
+++ b/biology/Botanique/Lamprodila_rutilans/Lamprodila_rutilans.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Lamprodila rutilans, le bupreste du tilleul, est une espèce d'insectes coléoptères de la famille des Buprestidae et de la  sous-famille des Chrysochroinae.
 </t>
@@ -511,9 +523,11 @@
           <t>Synonymie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon BioLib                    (14 févr. 2015)[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon BioLib                    (14 févr. 2015) :
 Buprestis aeruginosa Herbst, 1790
 Buprestis fastuosa Jacquin, 1781
 Buprestis gemmea Voet, 1806
@@ -550,7 +564,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce bupreste verdâtre long de 10 à 15 mm présente des reflets bleutés à dorés, le bord des élytres est cuivré.
 </t>
@@ -581,7 +597,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Europe : de l'Espagne à la Scandinavie, à la Russie, à l'Ukraine ; Afrique du Nord.
 </t>
@@ -612,7 +630,9 @@
           <t>Biologie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">On trouve les adultes de mai à septembre au voisinage des tilleuls ; la larve xylophage vit dans le bois des tilleuls vieillissants.
 </t>
